--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3274409.594285618</v>
+        <v>3383051.755588431</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8049436.301110889</v>
+        <v>8054929.947099305</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>223.5157404419931</v>
       </c>
       <c r="Y2" t="n">
-        <v>256.0280929834615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>103.3387326418235</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>173.0166260230231</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>195.6193946123538</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.6712089674257</v>
+        <v>24.45856068389108</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>260.094365400084</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>40.07641707559335</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>129.0186717738934</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>230.9615782616074</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>102.1557845699813</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1777,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>55.52079624060383</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>46.86766651429496</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>11.56087338713413</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>180.6687625091741</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>53.26309598425066</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>14.53306611597401</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>53.22824985092608</v>
       </c>
       <c r="D31" t="n">
-        <v>42.5313457611381</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>114.6638016462584</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>201.0922951267423</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>134.1343006978452</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3709,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>235.6626616905816</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>19.51567534720847</v>
       </c>
       <c r="H43" t="n">
-        <v>3.006892987835467</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>2003.121004338519</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4343,37 +4345,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.313418796629</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.313418796629</v>
+        <v>2003.121004338519</v>
       </c>
       <c r="Y2" t="n">
-        <v>1716.6991834598</v>
+        <v>2003.121004338519</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744472</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>383.6188956900846</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>155.6293447920672</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>155.6293447920672</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>618.7448086255752</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C5" t="n">
-        <v>618.7448086255752</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D5" t="n">
-        <v>618.7448086255752</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>232.9565560273309</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>226.0110552781275</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>2364.743980306869</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.949738926588</v>
+        <v>2011.975325036755</v>
       </c>
       <c r="X5" t="n">
-        <v>1395.483980665509</v>
+        <v>1638.509566775675</v>
       </c>
       <c r="Y5" t="n">
-        <v>1005.344648689697</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9870984135515</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>304.7087196946015</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>599.4122767260733</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>453.7539249574967</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C7" t="n">
-        <v>453.7539249574967</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D7" t="n">
-        <v>453.7539249574967</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827661</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W7" t="n">
-        <v>477.6642370458055</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X7" t="n">
-        <v>477.6642370458055</v>
+        <v>1016.455992655101</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.6642370458055</v>
+        <v>795.6634135115711</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734407</v>
+        <v>1670.924478026146</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.6639240396553</v>
+        <v>646.5617288506711</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>646.5617288506711</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>496.4450894383353</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>496.4450894383353</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>349.555141940425</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>181.5686772487036</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783663</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577776</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W10" t="n">
-        <v>928.4460540812028</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="X10" t="n">
-        <v>700.4565031831854</v>
+        <v>828.2101936809108</v>
       </c>
       <c r="Y10" t="n">
-        <v>479.6639240396553</v>
+        <v>828.2101936809108</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5060,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>197.0043242297712</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F13" t="n">
-        <v>197.0043242297712</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101285</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F16" t="n">
-        <v>149.8982754122182</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5543,7 +5545,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>141.1577403351385</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>247.2061440917678</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>105.4943129339659</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.469384076044</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.867919098985</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.792692443183</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1501.108204237296</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6075,19 +6077,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,31 +6214,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3275.130390493382</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3106.194207565476</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>2956.07756815314</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>2808.164474570747</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.274527072836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2494.078427787716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2352.366596629915</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.571434467152</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3677.571434467152</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3456.778855323622</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2940.5785039035</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C31" t="n">
-        <v>2771.642320975594</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="32">
@@ -6692,22 +6694,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2252.221377756499</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>728.2402605030711</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>580.327166920678</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>433.4372194227676</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>530.3315352860773</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>530.3315352860773</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1993.939015056514</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1704.863788400712</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1450.179300194825</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1160.762130157864</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>932.7725792598471</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>711.980000116317</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7163,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3173.601046153952</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673937</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>4115.110757018135</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>3860.426268812248</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>3622.383176195499</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>3394.393625297482</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>3173.601046153952</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2824.769373306003</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C43" t="n">
-        <v>2655.833190378096</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D43" t="n">
-        <v>2655.833190378096</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E43" t="n">
-        <v>2507.920096795703</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F43" t="n">
-        <v>2507.920096795703</v>
+        <v>337.3280009388789</v>
       </c>
       <c r="G43" t="n">
-        <v>2340.723997510583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.19996817779</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279773</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136243</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630498</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>2588.787486630498</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>2588.787486630498</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2421.591387345378</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>231.2582814363244</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.454437538929454</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>63.36835372228751</v>
+        <v>41.11201973523735</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>110.003342051665</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>34.39816980427056</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>69.7049629314314</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3575234924705342</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>172.4465594047865</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>66.73277020259152</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>114.0185712477017</v>
       </c>
       <c r="D31" t="n">
-        <v>106.0841272570743</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>50.86033664601045</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>65.33133491134419</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.31315520054599</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>45.69767948409211</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>50.86033664600936</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>146.0084629450604</v>
       </c>
       <c r="H43" t="n">
-        <v>137.2878198583884</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>703984.9440347643</v>
+        <v>709926.8715358351</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866284</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="G2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210056</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819083</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805859</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
@@ -26439,16 +26441,16 @@
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
         <v>6897.42449670736</v>
@@ -26457,7 +26459,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-600661.6899695345</v>
+        <v>-600661.6899695348</v>
       </c>
       <c r="C6" t="n">
-        <v>514090.0936063848</v>
+        <v>514090.0936063852</v>
       </c>
       <c r="D6" t="n">
-        <v>352292.0526080651</v>
+        <v>514090.0936063849</v>
       </c>
       <c r="E6" t="n">
-        <v>292999.5235930358</v>
+        <v>110926.5437758451</v>
       </c>
       <c r="F6" t="n">
-        <v>618411.9854003909</v>
+        <v>618411.9854003906</v>
       </c>
       <c r="G6" t="n">
+        <v>618411.9854003906</v>
+      </c>
+      <c r="H6" t="n">
         <v>618411.9854003908</v>
       </c>
-      <c r="H6" t="n">
-        <v>618411.9854003909</v>
-      </c>
       <c r="I6" t="n">
-        <v>618411.9854003912</v>
+        <v>618411.9854003913</v>
       </c>
       <c r="J6" t="n">
-        <v>450806.8075904083</v>
+        <v>450806.8075904082</v>
       </c>
       <c r="K6" t="n">
         <v>618411.9854003909</v>
       </c>
       <c r="L6" t="n">
-        <v>570118.0153921999</v>
+        <v>618411.9854003909</v>
       </c>
       <c r="M6" t="n">
-        <v>533356.9574648795</v>
+        <v>485804.6916714643</v>
       </c>
       <c r="N6" t="n">
-        <v>618411.9854003908</v>
+        <v>618411.985400391</v>
       </c>
       <c r="O6" t="n">
-        <v>618411.9854003908</v>
+        <v>618411.985400391</v>
       </c>
       <c r="P6" t="n">
-        <v>618411.985400391</v>
+        <v>618411.9854003909</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>146.215360236476</v>
       </c>
       <c r="Y2" t="n">
-        <v>130.2098456725921</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>76.49324754011384</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>238.5310767499309</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>132.1328638577811</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.1607712145116</v>
+        <v>155.3734194980462</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6394762633966</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>346.1615215804603</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>18.23283738123541</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>55.56142007498363</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O18" t="n">
-        <v>338.6542681503486</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>537.6437863443696</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940687</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,7 +33043,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,31 +33262,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>165.2255134509767</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>353.2560498238272</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33974,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,7 +33985,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,22 +34216,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34448,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>622.4553810291984</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>69.43465842984691</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>491.0077074256856</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O18" t="n">
-        <v>196.0580237059041</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962425</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,7 +36691,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>213.2742757378057</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,7 +37633,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3383051.755588431</v>
+        <v>3378914.598338278</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8054929.947099305</v>
+        <v>8054929.947099304</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>79.77884995491949</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>223.5157404419931</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.3387326418235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>76.83081349792802</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>221.4588999320975</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>195.6193946123538</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.45856068389108</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>190.2522373068902</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>208.2474868886328</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.07641707559335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>129.0186717738934</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4121185570315</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>46.86766651429496</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>11.56087338713413</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>53.26309598425066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>53.22824985092608</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G34" t="n">
-        <v>114.6638016462584</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>134.1343006978452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>19.51567534720847</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>160.1597912951064</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2003.121004338519</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C2" t="n">
-        <v>1634.158487398107</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4345,10 +4345,10 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.250581723851</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2481.754631475995</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2273.008990081819</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2019.427929345999</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="X2" t="n">
-        <v>2003.121004338519</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="Y2" t="n">
-        <v>2003.121004338519</v>
+        <v>1688.365042002428</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>143.6627691908477</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>590.2049751143504</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>884.9085321458222</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.50262973664</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676483</v>
@@ -4436,25 +4436,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800313</v>
+        <v>910.6959970014101</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800313</v>
+        <v>741.7598140735032</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800313</v>
+        <v>591.6431746611674</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800313</v>
+        <v>443.7300810787743</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800313</v>
+        <v>296.8401335808639</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>128.8536688891425</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>927.720553932932</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>673.0360657270452</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>383.6188956900846</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>155.6293447920672</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.6293447920672</v>
+        <v>1092.34446183165</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>1110.567897645743</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>752.3021990389925</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>752.3021990389925</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>341.316294249385</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4573,7 +4573,7 @@
         <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2364.743980306869</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2011.975325036755</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X5" t="n">
-        <v>1638.509566775675</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.370234799863</v>
+        <v>1479.530414586155</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694948</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>2193.450786296771</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2440.633520129068</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.9577966591559</v>
+        <v>813.841548125043</v>
       </c>
       <c r="C7" t="n">
-        <v>602.021613731249</v>
+        <v>644.9053651971361</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1244.445543553119</v>
+        <v>1444.27214299683</v>
       </c>
       <c r="X7" t="n">
-        <v>1016.455992655101</v>
+        <v>1216.282592098813</v>
       </c>
       <c r="Y7" t="n">
-        <v>795.6634135115711</v>
+        <v>995.4900129552827</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.324637962024</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552734</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570292</v>
+        <v>672.5836882148155</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>261.597783425208</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656512</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.405707395432</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1670.924478026146</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>458.7060632252732</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.5617288506711</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>646.5617288506711</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>496.4450894383353</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>496.4450894383353</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>349.555141940425</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>181.5686772487036</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.199744578928</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1056.199744578928</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>828.2101936809108</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>828.2101936809108</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,34 +5029,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5132,13 +5132,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057155</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>301.5721730233224</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>301.5721730233224</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565524</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101294</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>149.8982754122191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5545,7 +5545,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5606,16 +5606,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929404</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>282.8695714929404</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>282.8695714929404</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>141.1577403351385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892237</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768879</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>414.4022433768879</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>414.4022433768879</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>247.2061440917678</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>105.4943129339659</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6077,19 +6077,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6229,19 +6229,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6305,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6466,19 +6466,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,25 +6545,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1366.386875345992</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>728.2402605030711</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>580.327166920678</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F34" t="n">
-        <v>433.4372194227676</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7256,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770319</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>634.334587849125</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>484.2179484367892</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>484.2179484367892</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>337.3280009388789</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072716</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589524</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363244</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>193.3273467878354</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>6.454437538930208</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>35.91627445172429</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>41.11201973523735</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>34.39816980427056</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>69.7049629314314</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>172.4465594047865</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>114.0185712477017</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G34" t="n">
-        <v>50.86033664601045</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>65.33133491134419</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.69767948409211</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>146.0084629450604</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692174.0493866284</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778542</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26426,28 +26426,28 @@
         <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707359</v>
@@ -26459,7 +26459,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-600661.6899695348</v>
+        <v>-600661.6899695346</v>
       </c>
       <c r="C6" t="n">
-        <v>514090.0936063852</v>
+        <v>514090.0936063846</v>
       </c>
       <c r="D6" t="n">
-        <v>514090.0936063849</v>
+        <v>514090.0936063844</v>
       </c>
       <c r="E6" t="n">
-        <v>110926.5437758451</v>
+        <v>110579.1645214882</v>
       </c>
       <c r="F6" t="n">
-        <v>618411.9854003906</v>
+        <v>618064.6061460342</v>
       </c>
       <c r="G6" t="n">
-        <v>618411.9854003906</v>
+        <v>618064.6061460337</v>
       </c>
       <c r="H6" t="n">
-        <v>618411.9854003908</v>
+        <v>618064.6061460342</v>
       </c>
       <c r="I6" t="n">
-        <v>618411.9854003913</v>
+        <v>618064.6061460341</v>
       </c>
       <c r="J6" t="n">
-        <v>450806.8075904082</v>
+        <v>450459.4283360511</v>
       </c>
       <c r="K6" t="n">
-        <v>618411.9854003909</v>
+        <v>618064.6061460335</v>
       </c>
       <c r="L6" t="n">
-        <v>618411.9854003909</v>
+        <v>618064.606146034</v>
       </c>
       <c r="M6" t="n">
-        <v>485804.6916714643</v>
+        <v>485457.3124171071</v>
       </c>
       <c r="N6" t="n">
-        <v>618411.985400391</v>
+        <v>618064.6061460342</v>
       </c>
       <c r="O6" t="n">
-        <v>618411.985400391</v>
+        <v>618064.6061460339</v>
       </c>
       <c r="P6" t="n">
-        <v>618411.9854003909</v>
+        <v>618064.6061460337</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>43.67336544387487</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>146.215360236476</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.49324754011384</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>70.42069565720082</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>190.0888028408565</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>132.1328638577811</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.3734194980462</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>96.27076102970076</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>203.3002158843212</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.1615215804603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>18.23283738123541</v>
+        <v>96.27076102970049</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>196.3041720118997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421384</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>537.6437863443696</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>250.3097721075164</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>303.4297552732313</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,16 +33265,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33283,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>270.3182595810212</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>699.0496615458086</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402561</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>93.34947739681266</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>622.4553810291984</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>491.0077074256856</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35035,7 +35035,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>122.9351598697847</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>222.5037706952091</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35272,10 +35272,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>57.74979223202556</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588052</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>395.0475418999251</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>160.8335108287869</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36931,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3364854949997</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>556.4534171013642</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3378914.598338278</v>
+        <v>3380675.128641065</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>9.187652023183476</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>79.77884995491949</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>76.83081349792802</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4.680122792401946</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>221.4588999320975</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>181.3854821923564</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>51.92096917925194</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2522373068902</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>208.2474868886328</v>
+        <v>142.5375742161619</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>50.98074812542835</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>69.63957399764126</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187858</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>43.73846614325492</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>28.75188085812005</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881278</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>127.996768116959</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3319,7 +3319,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833856</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>160.1597912951064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1688.365042002428</v>
+        <v>1257.650691388937</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>1257.650691388937</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1257.650691388937</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2481.754631475995</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2273.008990081819</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2019.427929345999</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1688.365042002428</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1688.365042002428</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1688.365042002428</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1688.365042002428</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4406,34 +4406,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>143.6627691908477</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143504</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458222</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>910.6959970014101</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C4" t="n">
-        <v>741.7598140735032</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D4" t="n">
-        <v>591.6431746611674</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E4" t="n">
-        <v>443.7300810787743</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>296.8401335808639</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>128.8536688891425</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4521,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1631.718723314495</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1377.034235108608</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.34446183165</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.34446183165</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1479.530414586155</v>
+        <v>723.4883455371873</v>
       </c>
       <c r="C5" t="n">
-        <v>1110.567897645743</v>
+        <v>723.4883455371873</v>
       </c>
       <c r="D5" t="n">
-        <v>752.3021990389925</v>
+        <v>723.4883455371873</v>
       </c>
       <c r="E5" t="n">
-        <v>752.3021990389925</v>
+        <v>723.4883455371873</v>
       </c>
       <c r="F5" t="n">
-        <v>341.316294249385</v>
+        <v>312.5024407475798</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>300.8380945122727</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,16 +4567,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4600,19 +4600,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847234</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586155</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1479.530414586155</v>
+        <v>1110.088185601309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1861.38035112061</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>2193.450786296771</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2440.633520129068</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>813.841548125043</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>644.9053651971361</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="D7" t="n">
-        <v>494.7887257848004</v>
+        <v>566.4817157534138</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>418.5686221710207</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>271.6786746731103</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>103.6922099813889</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>103.6922099813889</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1444.27214299683</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>1216.282592098813</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>995.4900129552827</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360222</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C8" t="n">
         <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.37194081306</v>
+        <v>1058.371940813059</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148155</v>
+        <v>672.5836882148151</v>
       </c>
       <c r="F8" t="n">
-        <v>261.597783425208</v>
+        <v>261.5977834252075</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4849,7 +4849,7 @@
         <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424344</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K9" t="n">
-        <v>458.7060632252732</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004312</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
         <v>402.7245934908938</v>
@@ -5193,58 +5193,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5415,7 +5415,7 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
         <v>484.8112968429803</v>
@@ -5433,16 +5433,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6138,13 +6138,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400712</v>
+        <v>446.9048623224652</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>446.9048623224652</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="35">
@@ -6928,43 +6928,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>30.36925650589524</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013359</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,25 +8300,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019039</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.454437538930208</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K9" t="n">
-        <v>35.91627445172429</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>137.2878198583897</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>37.52737017530985</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823061</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866284</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778542</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="I2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="K2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210049</v>
-      </c>
       <c r="L2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.503702149157224e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26420,46 +26420,46 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
+        <v>131909.7268316249</v>
+      </c>
+      <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
-      <c r="D4" t="n">
-        <v>131909.7268316249</v>
-      </c>
       <c r="E4" t="n">
-        <v>6897.424496707321</v>
+        <v>6897.424496707397</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707397</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707277</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707263</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>514090.0936063846</v>
       </c>
       <c r="D6" t="n">
-        <v>514090.0936063844</v>
+        <v>514090.0936063851</v>
       </c>
       <c r="E6" t="n">
-        <v>110579.1645214882</v>
+        <v>110891.8058504094</v>
       </c>
       <c r="F6" t="n">
-        <v>618064.6061460342</v>
+        <v>618377.2474749553</v>
       </c>
       <c r="G6" t="n">
-        <v>618064.6061460337</v>
+        <v>618377.2474749553</v>
       </c>
       <c r="H6" t="n">
-        <v>618064.6061460342</v>
+        <v>618377.2474749549</v>
       </c>
       <c r="I6" t="n">
-        <v>618064.6061460341</v>
+        <v>618377.2474749553</v>
       </c>
       <c r="J6" t="n">
-        <v>450459.4283360511</v>
+        <v>450772.0696649725</v>
       </c>
       <c r="K6" t="n">
-        <v>618064.6061460335</v>
+        <v>618377.2474749552</v>
       </c>
       <c r="L6" t="n">
-        <v>618064.606146034</v>
+        <v>618377.2474749552</v>
       </c>
       <c r="M6" t="n">
-        <v>485457.3124171071</v>
+        <v>485769.9537460285</v>
       </c>
       <c r="N6" t="n">
-        <v>618064.6061460342</v>
+        <v>618377.2474749553</v>
       </c>
       <c r="O6" t="n">
-        <v>618064.6061460339</v>
+        <v>618377.2474749554</v>
       </c>
       <c r="P6" t="n">
-        <v>618064.6061460337</v>
+        <v>618377.2474749552</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.966424998361056e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.966424998361056e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.966424998361056e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.966424998361056e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.966424998361056e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241344</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241346</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.966424998361056e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.966424998361056e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>372.7427180490783</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>43.67336544387487</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>70.42069565720082</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>281.5470313287987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>190.0888028408565</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>119.6330703700489</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>52.87562602464862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>96.27076102970076</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>203.3002158843212</v>
+        <v>269.0101285567921</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>96.27076102970049</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>216.8834243389497</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.300027332097668e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>8.300027332097668e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.496617987832442e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-2.126740087173516e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P21" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N30" t="n">
-        <v>416.7024900153332</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402561</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>93.34947739681266</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>230.8362312321904</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.015880398027</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>122.9351598697847</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K9" t="n">
-        <v>222.5037706952091</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P21" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N30" t="n">
-        <v>285.3607779319999</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
